--- a/NEW HR/SARMIENTO, MARIA TERESA.xlsx
+++ b/NEW HR/SARMIENTO, MARIA TERESA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="69">
   <si>
     <t>PERIOD</t>
   </si>
@@ -238,6 +238,12 @@
   </si>
   <si>
     <t>SL(1-0-0)</t>
+  </si>
+  <si>
+    <t>SL(4-0-0)</t>
+  </si>
+  <si>
+    <t>06/1-4/2023</t>
   </si>
 </sst>
 </file>
@@ -631,17 +637,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -651,6 +654,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1181,7 +1187,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1224,7 +1230,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1288,7 +1294,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1348,7 +1354,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1414,7 +1420,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1477,7 +1483,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1575,7 +1581,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1634,7 +1640,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1699,7 +1705,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1742,7 +1748,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1817,7 +1823,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2003,7 +2009,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2069,7 +2075,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2127,7 +2133,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2193,7 +2199,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2249,7 +2255,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2324,7 +2330,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2367,7 +2373,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2433,7 +2439,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2489,7 +2495,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2964,10 +2970,10 @@
   </sheetPr>
   <dimension ref="A2:K134"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A58" activePane="bottomLeft"/>
-      <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="B76" sqref="B76"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A31"/>
+      <selection activeCell="B81" sqref="B81"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2997,14 +3003,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3017,14 +3023,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3037,16 +3043,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3072,18 +3078,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3130,7 +3136,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>52.5</v>
+        <v>56.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3140,7 +3146,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>77.5</v>
+        <v>81.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4518,15 +4524,19 @@
       <c r="K77" s="20"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="40"/>
+      <c r="A78" s="40">
+        <v>44986</v>
+      </c>
       <c r="B78" s="20"/>
-      <c r="C78" s="13"/>
+      <c r="C78" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="39"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
@@ -4534,15 +4544,19 @@
       <c r="K78" s="20"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="40"/>
+      <c r="A79" s="40">
+        <v>45017</v>
+      </c>
       <c r="B79" s="20"/>
-      <c r="C79" s="13"/>
+      <c r="C79" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="39"/>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
@@ -4550,15 +4564,19 @@
       <c r="K79" s="20"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="40"/>
+      <c r="A80" s="40">
+        <v>45047</v>
+      </c>
       <c r="B80" s="20"/>
-      <c r="C80" s="13"/>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="39"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
@@ -4566,7 +4584,9 @@
       <c r="K80" s="20"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="40"/>
+      <c r="A81" s="40">
+        <v>45078</v>
+      </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
       <c r="D81" s="39"/>
@@ -5431,17 +5451,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5509,14 +5529,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5529,14 +5549,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5549,16 +5569,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5584,18 +5604,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5652,7 +5672,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>62.5</v>
+        <v>58.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5960,8 +5980,12 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
-      <c r="B24" s="20"/>
+      <c r="A24" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>67</v>
+      </c>
       <c r="C24" s="13"/>
       <c r="D24" s="39"/>
       <c r="E24" s="9"/>
@@ -5970,10 +5994,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H24" s="39"/>
+      <c r="H24" s="39">
+        <v>4</v>
+      </c>
       <c r="I24" s="9"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="20"/>
+      <c r="K24" s="20" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>

--- a/NEW HR/SARMIENTO, MARIA TERESA.xlsx
+++ b/NEW HR/SARMIENTO, MARIA TERESA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="70">
   <si>
     <t>PERIOD</t>
   </si>
@@ -244,6 +244,9 @@
   </si>
   <si>
     <t>06/1-4/2023</t>
+  </si>
+  <si>
+    <t>ANNIVERSARY 7/23/2023</t>
   </si>
 </sst>
 </file>
@@ -637,14 +640,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -654,9 +660,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1187,7 +1190,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1230,7 +1233,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1294,7 +1297,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1354,7 +1357,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1420,7 +1423,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1483,7 +1486,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1581,7 +1584,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1640,7 +1643,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1705,7 +1708,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1748,7 +1751,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1823,7 +1826,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2009,7 +2012,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2075,7 +2078,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2133,7 +2136,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2199,7 +2202,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2255,7 +2258,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2330,7 +2333,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2373,7 +2376,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2439,7 +2442,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2495,7 +2498,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2970,10 +2973,10 @@
   </sheetPr>
   <dimension ref="A2:K134"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A31"/>
-      <selection activeCell="B81" sqref="B81"/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A67" activePane="bottomLeft"/>
+      <selection activeCell="G18" sqref="G18"/>
+      <selection pane="bottomLeft" activeCell="K80" sqref="K80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3003,14 +3006,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3023,14 +3026,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3043,16 +3046,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="56"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3078,18 +3081,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3136,7 +3139,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>56.25</v>
+        <v>57.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3146,7 +3149,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>81.25</v>
+        <v>82.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4588,13 +4591,15 @@
         <v>45078</v>
       </c>
       <c r="B81" s="20"/>
-      <c r="C81" s="13"/>
+      <c r="C81" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="39"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
@@ -5451,17 +5456,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5499,7 +5504,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A10" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
+      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5529,14 +5534,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5549,14 +5554,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5569,16 +5574,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="56"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5604,18 +5609,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6004,8 +6009,12 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
-      <c r="B25" s="20"/>
+      <c r="A25" s="40">
+        <v>45108</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C25" s="13"/>
       <c r="D25" s="39"/>
       <c r="E25" s="9"/>
@@ -6017,7 +6026,9 @@
       <c r="H25" s="39"/>
       <c r="I25" s="9"/>
       <c r="J25" s="11"/>
-      <c r="K25" s="20"/>
+      <c r="K25" s="49" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>

--- a/NEW HR/SARMIENTO, MARIA TERESA.xlsx
+++ b/NEW HR/SARMIENTO, MARIA TERESA.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="72">
   <si>
     <t>PERIOD</t>
   </si>
@@ -247,6 +247,12 @@
   </si>
   <si>
     <t>ANNIVERSARY 7/23/2023</t>
+  </si>
+  <si>
+    <t>VL(5-0-0)</t>
+  </si>
+  <si>
+    <t>9/26-30/2023</t>
   </si>
 </sst>
 </file>
@@ -640,17 +646,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -660,6 +663,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1190,7 +1196,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1233,7 +1239,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1297,7 +1303,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1357,7 +1363,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1423,7 +1429,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1486,7 +1492,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1584,7 +1590,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1643,7 +1649,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1708,7 +1714,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1751,7 +1757,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1826,7 +1832,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2012,7 +2018,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2078,7 +2084,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2136,7 +2142,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2202,7 +2208,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2258,7 +2264,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2333,7 +2339,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2376,7 +2382,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2442,7 +2448,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2498,7 +2504,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2976,7 +2982,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A67" activePane="bottomLeft"/>
       <selection activeCell="G18" sqref="G18"/>
-      <selection pane="bottomLeft" activeCell="K80" sqref="K80"/>
+      <selection pane="bottomLeft" activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3006,14 +3012,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3026,14 +3032,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3046,16 +3052,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3081,18 +3087,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3139,7 +3145,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>57.5</v>
+        <v>60</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3149,7 +3155,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>82.5</v>
+        <v>85</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4607,15 +4613,19 @@
       <c r="K81" s="20"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="40"/>
+      <c r="A82" s="40">
+        <v>45108</v>
+      </c>
       <c r="B82" s="20"/>
-      <c r="C82" s="13"/>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
@@ -4623,15 +4633,19 @@
       <c r="K82" s="20"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="40"/>
+      <c r="A83" s="40">
+        <v>45139</v>
+      </c>
       <c r="B83" s="20"/>
-      <c r="C83" s="13"/>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
@@ -4639,7 +4653,9 @@
       <c r="K83" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="40"/>
+      <c r="A84" s="40">
+        <v>45170</v>
+      </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
       <c r="D84" s="39"/>
@@ -4655,7 +4671,9 @@
       <c r="K84" s="20"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="40"/>
+      <c r="A85" s="40">
+        <v>45200</v>
+      </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
@@ -5456,17 +5474,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5504,7 +5522,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A10" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
+      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5534,14 +5552,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5554,14 +5572,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5574,16 +5592,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5609,18 +5627,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5667,7 +5685,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>31.094999999999999</v>
+        <v>26.094999999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -6031,10 +6049,16 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
-      <c r="B26" s="20"/>
+      <c r="A26" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="C26" s="13"/>
-      <c r="D26" s="39"/>
+      <c r="D26" s="39">
+        <v>5</v>
+      </c>
       <c r="E26" s="9"/>
       <c r="F26" s="20"/>
       <c r="G26" s="13" t="str">
@@ -6044,7 +6068,9 @@
       <c r="H26" s="39"/>
       <c r="I26" s="9"/>
       <c r="J26" s="11"/>
-      <c r="K26" s="20"/>
+      <c r="K26" s="20" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
